--- a/Raw Experimental Data/Branched Alkanes/References.xlsx
+++ b/Raw Experimental Data/Branched Alkanes/References.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erich\OneDrive\Documents\Y4\4YR\Raw Experimental Data\Branched Alkanes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F8EC2-E186-4383-8CC2-2D6C0F7D4E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DB3558-96CC-43F8-9A5D-B21F1BE6734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E1BC214-1144-4686-8CD6-A7E234492461}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>2-methyl-1-propane</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>CH3,CH2,CH,C</t>
-  </si>
-  <si>
-    <t>CH3,CH2,Ch</t>
   </si>
   <si>
     <t>CH2</t>
@@ -519,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD78333-E700-4CD2-92BC-61C8D01BCF66}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -596,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" t="s">
@@ -684,10 +681,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>

--- a/Raw Experimental Data/Branched Alkanes/References.xlsx
+++ b/Raw Experimental Data/Branched Alkanes/References.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erich\OneDrive\Documents\Y4\4YR\Raw Experimental Data\Branched Alkanes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DB3558-96CC-43F8-9A5D-B21F1BE6734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728FFC27-7A77-4A5D-A063-DEA696004E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E1BC214-1144-4686-8CD6-A7E234492461}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD78333-E700-4CD2-92BC-61C8D01BCF66}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Raw Experimental Data/Branched Alkanes/References.xlsx
+++ b/Raw Experimental Data/Branched Alkanes/References.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erich\OneDrive\Documents\Y4\4YR\Raw Experimental Data\Branched Alkanes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728FFC27-7A77-4A5D-A063-DEA696004E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5997E188-AEB9-4AD0-962C-ABF5D7F99265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E1BC214-1144-4686-8CD6-A7E234492461}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>2-methyl-1-propane</t>
   </si>
@@ -129,16 +129,30 @@
   </si>
   <si>
     <t>DETHERM</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jct.2014.01.008</t>
+  </si>
+  <si>
+    <t>n-eicosane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,15 +187,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -514,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD78333-E700-4CD2-92BC-61C8D01BCF66}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +708,18 @@
       </c>
       <c r="E16" s="1"/>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{D37D5C9E-0B32-4AE7-85EA-B67C4A1B4D20}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Raw Experimental Data/Branched Alkanes/References.xlsx
+++ b/Raw Experimental Data/Branched Alkanes/References.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erich\OneDrive\Documents\Y4\4YR\Raw Experimental Data\Branched Alkanes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5997E188-AEB9-4AD0-962C-ABF5D7F99265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461088E3-43B0-48E7-A359-608A253709EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E1BC214-1144-4686-8CD6-A7E234492461}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>2-methyl-1-propane</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>n-eicosane</t>
+  </si>
+  <si>
+    <t>10.1021/je400274f</t>
+  </si>
+  <si>
+    <t>Multiple branched</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fluid.2019.01.021</t>
+  </si>
+  <si>
+    <t>2,2,4 trimethylhexane</t>
   </si>
 </sst>
 </file>
@@ -531,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD78333-E700-4CD2-92BC-61C8D01BCF66}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,6 +728,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A20" r:id="rId1" xr:uid="{D37D5C9E-0B32-4AE7-85EA-B67C4A1B4D20}"/>
